--- a/Database/task.xlsx
+++ b/Database/task.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reemnakouzi/Desktop/Final Project/Database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reemnakouzi/Desktop/Trial code/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C352EA-F408-7F4E-BEA9-73C2C7D0ECEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0CE5BE-0B5C-9343-B58E-16B88F653891}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4480" yWindow="8640" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
   <si>
     <t>name</t>
   </si>
@@ -41,6 +41,105 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>01/04/2021</t>
+  </si>
+  <si>
+    <t>10/04/2021</t>
+  </si>
+  <si>
+    <t>03/04/2021</t>
+  </si>
+  <si>
+    <t>06/04/2021</t>
+  </si>
+  <si>
+    <t>Reem</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Shadi</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>US22</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>T111</t>
+  </si>
+  <si>
+    <t>T112</t>
+  </si>
+  <si>
+    <t>T121</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>T211</t>
+  </si>
+  <si>
+    <t>T212</t>
+  </si>
+  <si>
+    <t>T221</t>
+  </si>
+  <si>
+    <t>T222</t>
+  </si>
+  <si>
+    <t>T231</t>
+  </si>
+  <si>
+    <t>US31</t>
+  </si>
+  <si>
+    <t>US32</t>
+  </si>
+  <si>
+    <t>15/04/2021</t>
+  </si>
+  <si>
+    <t>T311</t>
+  </si>
+  <si>
+    <t>T312</t>
+  </si>
+  <si>
+    <t>T321</t>
+  </si>
+  <si>
+    <t>Wafic</t>
+  </si>
+  <si>
+    <t>01/03/2021</t>
+  </si>
+  <si>
+    <t>15/03/2021</t>
+  </si>
+  <si>
+    <t>17/03/2021</t>
   </si>
 </sst>
 </file>
@@ -99,11 +198,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,13 +543,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -473,6 +577,244 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database/task.xlsx
+++ b/Database/task.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reemnakouzi/Desktop/Trial code/Database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reemnakouzi/Desktop/ENMG_644-master/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0CE5BE-0B5C-9343-B58E-16B88F653891}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1A17F3-4284-7942-85C5-3BEC3AD8AB44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="8640" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>name</t>
   </si>
@@ -43,18 +43,51 @@
     <t>status</t>
   </si>
   <si>
+    <t>T111</t>
+  </si>
+  <si>
+    <t>T112</t>
+  </si>
+  <si>
+    <t>T121</t>
+  </si>
+  <si>
+    <t>T211</t>
+  </si>
+  <si>
+    <t>T212</t>
+  </si>
+  <si>
+    <t>Task1</t>
+  </si>
+  <si>
+    <t>T221</t>
+  </si>
+  <si>
+    <t>T222</t>
+  </si>
+  <si>
+    <t>T231</t>
+  </si>
+  <si>
     <t>01/04/2021</t>
   </si>
   <si>
     <t>10/04/2021</t>
   </si>
   <si>
+    <t>11/11/2020</t>
+  </si>
+  <si>
     <t>03/04/2021</t>
   </si>
   <si>
     <t>06/04/2021</t>
   </si>
   <si>
+    <t>15/04/2021</t>
+  </si>
+  <si>
     <t>Reem</t>
   </si>
   <si>
@@ -70,9 +103,15 @@
     <t>US12</t>
   </si>
   <si>
+    <t>US21</t>
+  </si>
+  <si>
     <t>US22</t>
   </si>
   <si>
+    <t>US23</t>
+  </si>
+  <si>
     <t>Completed</t>
   </si>
   <si>
@@ -80,66 +119,6 @@
   </si>
   <si>
     <t>In Progress</t>
-  </si>
-  <si>
-    <t>T111</t>
-  </si>
-  <si>
-    <t>T112</t>
-  </si>
-  <si>
-    <t>T121</t>
-  </si>
-  <si>
-    <t>US21</t>
-  </si>
-  <si>
-    <t>US23</t>
-  </si>
-  <si>
-    <t>T211</t>
-  </si>
-  <si>
-    <t>T212</t>
-  </si>
-  <si>
-    <t>T221</t>
-  </si>
-  <si>
-    <t>T222</t>
-  </si>
-  <si>
-    <t>T231</t>
-  </si>
-  <si>
-    <t>US31</t>
-  </si>
-  <si>
-    <t>US32</t>
-  </si>
-  <si>
-    <t>15/04/2021</t>
-  </si>
-  <si>
-    <t>T311</t>
-  </si>
-  <si>
-    <t>T312</t>
-  </si>
-  <si>
-    <t>T321</t>
-  </si>
-  <si>
-    <t>Wafic</t>
-  </si>
-  <si>
-    <t>01/03/2021</t>
-  </si>
-  <si>
-    <t>15/03/2021</t>
-  </si>
-  <si>
-    <t>17/03/2021</t>
   </si>
 </sst>
 </file>
@@ -198,13 +177,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,16 +520,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="4" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -579,240 +551,194 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
         <v>28</v>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
         <v>30</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Database/task.xlsx
+++ b/Database/task.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10411"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reemnakouzi/Desktop/ENMG_644-master/Database/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1A17F3-4284-7942-85C5-3BEC3AD8AB44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
   <si>
     <t>name</t>
   </si>
@@ -43,89 +37,113 @@
     <t>status</t>
   </si>
   <si>
-    <t>T111</t>
-  </si>
-  <si>
-    <t>T112</t>
-  </si>
-  <si>
-    <t>T121</t>
-  </si>
-  <si>
-    <t>T211</t>
-  </si>
-  <si>
-    <t>T212</t>
-  </si>
-  <si>
-    <t>Task1</t>
-  </si>
-  <si>
-    <t>T221</t>
-  </si>
-  <si>
-    <t>T222</t>
-  </si>
-  <si>
-    <t>T231</t>
+    <t>Allow user to add iteration name and duration.</t>
+  </si>
+  <si>
+    <t>Allow user to add iteration start date.</t>
+  </si>
+  <si>
+    <t>Allow user to add user stories and tasks.</t>
+  </si>
+  <si>
+    <t>Save iteration to database.</t>
+  </si>
+  <si>
+    <t>Allow user to add user story name and size.</t>
+  </si>
+  <si>
+    <t>Save user story to database.</t>
+  </si>
+  <si>
+    <t>Allow user to add task name, effort, start, developer.</t>
+  </si>
+  <si>
+    <t>Set task status to Open by default.</t>
+  </si>
+  <si>
+    <t>Save task to database.</t>
+  </si>
+  <si>
+    <t>Allow developer to change status of assigned task.</t>
+  </si>
+  <si>
+    <t>Set end date to the date that status is changed to completed.</t>
+  </si>
+  <si>
+    <t>Save status to database.</t>
+  </si>
+  <si>
+    <t>Show user story status of the iteration.</t>
+  </si>
+  <si>
+    <t>Plot Burn-down chart.</t>
+  </si>
+  <si>
+    <t>Create Iteration database.</t>
+  </si>
+  <si>
+    <t>Create task database.</t>
   </si>
   <si>
     <t>01/04/2021</t>
   </si>
   <si>
-    <t>10/04/2021</t>
-  </si>
-  <si>
-    <t>11/11/2020</t>
-  </si>
-  <si>
-    <t>03/04/2021</t>
+    <t>07/04/2021</t>
+  </si>
+  <si>
+    <t>04/04/2021</t>
+  </si>
+  <si>
+    <t>05/04/2021</t>
   </si>
   <si>
     <t>06/04/2021</t>
   </si>
   <si>
-    <t>15/04/2021</t>
-  </si>
-  <si>
     <t>Reem</t>
   </si>
   <si>
+    <t>Shadi</t>
+  </si>
+  <si>
     <t>George</t>
   </si>
   <si>
-    <t>Shadi</t>
-  </si>
-  <si>
-    <t>US11</t>
-  </si>
-  <si>
-    <t>US12</t>
-  </si>
-  <si>
-    <t>US21</t>
-  </si>
-  <si>
-    <t>US22</t>
-  </si>
-  <si>
-    <t>US23</t>
+    <t>Wafic</t>
+  </si>
+  <si>
+    <t>As a scrum master, so that I define the iteration, I want to add its specific details.</t>
+  </si>
+  <si>
+    <t>As a scrum master, so that I can define a backlog, I want to create new user stories.</t>
+  </si>
+  <si>
+    <t>As a scrum master, so that I complete the details of a user story, I want to add tasks for each user story.</t>
+  </si>
+  <si>
+    <t>As a developer, so that I can update my progress, I want to change the status of the task assigned to me.</t>
+  </si>
+  <si>
+    <t>As a project member, so that I can view the  current iteration, I want to be able to genrate a report.</t>
+  </si>
+  <si>
+    <t>As a manager, so that I can view an iteration, I want to create a database for the system.</t>
   </si>
   <si>
     <t>Completed</t>
   </si>
   <si>
+    <t>In Progress</t>
+  </si>
+  <si>
     <t>Open</t>
-  </si>
-  <si>
-    <t>In Progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,14 +206,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -242,7 +252,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,27 +284,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,24 +318,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -519,14 +493,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,30 +523,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -580,22 +554,22 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -603,42 +577,39 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -646,59 +617,68 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -706,39 +686,182 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="E10" t="s">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Database/task.xlsx
+++ b/Database/task.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reemnakouzi/Desktop/ENMG_644-master 2/Database/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58786BE7-3340-5A45-84AB-1065C6F01C33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="340" yWindow="3500" windowWidth="18060" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
   <si>
     <t>name</t>
   </si>
@@ -37,69 +43,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>Allow user to add iteration name and duration.</t>
-  </si>
-  <si>
-    <t>Allow user to add iteration start date.</t>
-  </si>
-  <si>
-    <t>Allow user to add user stories and tasks.</t>
-  </si>
-  <si>
-    <t>Save iteration to database.</t>
-  </si>
-  <si>
-    <t>Allow user to add user story name and size.</t>
-  </si>
-  <si>
-    <t>Save user story to database.</t>
-  </si>
-  <si>
-    <t>Allow user to add task name, effort, start, developer.</t>
-  </si>
-  <si>
-    <t>Set task status to Open by default.</t>
-  </si>
-  <si>
-    <t>Save task to database.</t>
-  </si>
-  <si>
-    <t>Allow developer to change status of assigned task.</t>
-  </si>
-  <si>
-    <t>Set end date to the date that status is changed to completed.</t>
-  </si>
-  <si>
-    <t>Save status to database.</t>
-  </si>
-  <si>
-    <t>Show user story status of the iteration.</t>
-  </si>
-  <si>
-    <t>Plot Burn-down chart.</t>
-  </si>
-  <si>
-    <t>Create Iteration database.</t>
-  </si>
-  <si>
-    <t>Create task database.</t>
-  </si>
-  <si>
-    <t>01/04/2021</t>
-  </si>
-  <si>
-    <t>07/04/2021</t>
-  </si>
-  <si>
-    <t>04/04/2021</t>
-  </si>
-  <si>
-    <t>05/04/2021</t>
-  </si>
-  <si>
-    <t>06/04/2021</t>
-  </si>
-  <si>
     <t>Reem</t>
   </si>
   <si>
@@ -112,24 +55,6 @@
     <t>Wafic</t>
   </si>
   <si>
-    <t>As a scrum master, so that I define the iteration, I want to add its specific details.</t>
-  </si>
-  <si>
-    <t>As a scrum master, so that I can define a backlog, I want to create new user stories.</t>
-  </si>
-  <si>
-    <t>As a scrum master, so that I complete the details of a user story, I want to add tasks for each user story.</t>
-  </si>
-  <si>
-    <t>As a developer, so that I can update my progress, I want to change the status of the task assigned to me.</t>
-  </si>
-  <si>
-    <t>As a project member, so that I can view the  current iteration, I want to be able to genrate a report.</t>
-  </si>
-  <si>
-    <t>As a manager, so that I can view an iteration, I want to create a database for the system.</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
@@ -137,13 +62,130 @@
   </si>
   <si>
     <t>Open</t>
+  </si>
+  <si>
+    <t>T111</t>
+  </si>
+  <si>
+    <t>T112</t>
+  </si>
+  <si>
+    <t>T121</t>
+  </si>
+  <si>
+    <t>T122</t>
+  </si>
+  <si>
+    <t>T123</t>
+  </si>
+  <si>
+    <t>T131</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>01/03/2021</t>
+  </si>
+  <si>
+    <t>15/04/2021</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>US22</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>US24</t>
+  </si>
+  <si>
+    <t>T211</t>
+  </si>
+  <si>
+    <t>T212</t>
+  </si>
+  <si>
+    <t>T221</t>
+  </si>
+  <si>
+    <t>T222</t>
+  </si>
+  <si>
+    <t>T223</t>
+  </si>
+  <si>
+    <t>T224</t>
+  </si>
+  <si>
+    <t>T231</t>
+  </si>
+  <si>
+    <t>T232</t>
+  </si>
+  <si>
+    <t>T233</t>
+  </si>
+  <si>
+    <t>T241</t>
+  </si>
+  <si>
+    <t>T242</t>
+  </si>
+  <si>
+    <t>03/03/2021</t>
+  </si>
+  <si>
+    <t>07/03/2021</t>
+  </si>
+  <si>
+    <t>06/03/2021</t>
+  </si>
+  <si>
+    <t>09/03/2021</t>
+  </si>
+  <si>
+    <t>11/03/2021</t>
+  </si>
+  <si>
+    <t>16/04/2021</t>
+  </si>
+  <si>
+    <t>23/04/2021</t>
+  </si>
+  <si>
+    <t>22/04/2021</t>
+  </si>
+  <si>
+    <t>27/04/2021</t>
+  </si>
+  <si>
+    <t>18/04/2021</t>
+  </si>
+  <si>
+    <t>20/04/2021</t>
+  </si>
+  <si>
+    <t>25/04/2021</t>
+  </si>
+  <si>
+    <t>13/03/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,17 +237,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -252,7 +304,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,9 +336,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,6 +388,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -493,14 +581,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,345 +617,383 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
+      <c r="D3" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>18</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>35</v>
       </c>
-      <c r="G13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
       <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
         <v>4</v>
       </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
         <v>28</v>
       </c>
-      <c r="F16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
         <v>7</v>
       </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" t="s">
-        <v>39</v>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
